--- a/olds/Livros - Tabelas.xlsx
+++ b/olds/Livros - Tabelas.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Livros" sheetId="1" r:id="rId1"/>
-    <sheet name="Registo" sheetId="2" r:id="rId2"/>
+    <sheet name="Membro" sheetId="2" r:id="rId2"/>
     <sheet name="Contabilidade" sheetId="3" r:id="rId3"/>
     <sheet name="Saldo Cliente" sheetId="4" r:id="rId4"/>
+    <sheet name="Perfil" sheetId="5" r:id="rId5"/>
+    <sheet name="Doaccao" sheetId="7" r:id="rId6"/>
+    <sheet name="Transaccao" sheetId="8" r:id="rId7"/>
+    <sheet name="MDM-ReferenceData" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t>Autor</t>
   </si>
@@ -109,12 +113,6 @@
     <t>[500 g - 2 kg]</t>
   </si>
   <si>
-    <t>(a) Aos objetos não normalizados destes escalões aplica-se o preço do escalão seguinte.</t>
-  </si>
-  <si>
-    <t>(b) Preço aplicável aos Bilhetes Postais.</t>
-  </si>
-  <si>
     <t>Valor User</t>
   </si>
   <si>
@@ -146,16 +144,244 @@
   </si>
   <si>
     <t>Troca A</t>
+  </si>
+  <si>
+    <t>Tipo de Doacção</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Classificaçao</t>
+  </si>
+  <si>
+    <t>Conservação</t>
+  </si>
+  <si>
+    <t>Colecçao</t>
+  </si>
+  <si>
+    <t>Vol</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Livros D'Hoje</t>
+  </si>
+  <si>
+    <t>Opiniao</t>
+  </si>
+  <si>
+    <t>Economia</t>
+  </si>
+  <si>
+    <t>Muito Boa</t>
+  </si>
+  <si>
+    <t>FotoID</t>
+  </si>
+  <si>
+    <t>link para o ficheiroimagem</t>
+  </si>
+  <si>
+    <t>PalavrasChave</t>
+  </si>
+  <si>
+    <t>Membro</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Doaccao</t>
+  </si>
+  <si>
+    <t>978-972-20-5262-7</t>
+  </si>
+  <si>
+    <t>luis.dinis@gmail.com</t>
+  </si>
+  <si>
+    <t>dproenca@gmail.com</t>
+  </si>
+  <si>
+    <t>Doador</t>
+  </si>
+  <si>
+    <t>Leitor</t>
+  </si>
+  <si>
+    <t>MembroID</t>
+  </si>
+  <si>
+    <t>Nick name</t>
+  </si>
+  <si>
+    <t>dinix</t>
+  </si>
+  <si>
+    <t>diogo</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Leya</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Crise, Economia, Troika</t>
+  </si>
+  <si>
+    <t>Lista de Perfis</t>
+  </si>
+  <si>
+    <t>Entidades</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Livro</t>
+  </si>
+  <si>
+    <t>Transacção</t>
+  </si>
+  <si>
+    <t>ONG</t>
+  </si>
+  <si>
+    <t>nfolque@hotmail.com</t>
+  </si>
+  <si>
+    <t>folque</t>
+  </si>
+  <si>
+    <t>PendAproval</t>
+  </si>
+  <si>
+    <t>DataRegisto</t>
+  </si>
+  <si>
+    <t>LivroID</t>
+  </si>
+  <si>
+    <t>TipoDoaccao</t>
+  </si>
+  <si>
+    <t>ReservaPropriedade</t>
+  </si>
+  <si>
+    <t>AguardaRecepção</t>
+  </si>
+  <si>
+    <t>TransacID</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>TipoEntrega</t>
+  </si>
+  <si>
+    <t>valorMin</t>
+  </si>
+  <si>
+    <t>ValorMax</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>Portes</t>
+  </si>
+  <si>
+    <t>Unida</t>
+  </si>
+  <si>
+    <t>peça</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>DataPedido</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Pediu</t>
+  </si>
+  <si>
+    <t>PorResolver</t>
+  </si>
+  <si>
+    <t>Fechado</t>
+  </si>
+  <si>
+    <t>PedidoTransfer</t>
+  </si>
+  <si>
+    <t>DataStatus</t>
+  </si>
+  <si>
+    <t>InicioEnvio</t>
+  </si>
+  <si>
+    <t>Jose Gomes Ferreira</t>
+  </si>
+  <si>
+    <t>O meu programa de governo</t>
+  </si>
+  <si>
+    <t>EmCirculacao</t>
+  </si>
+  <si>
+    <t>MembroQueRequereu</t>
+  </si>
+  <si>
+    <t>MembroQueTem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,28 +391,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,12 +457,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,32 +484,56 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="22"/>
       </left>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="22"/>
       </right>
       <top style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="22"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -248,19 +546,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal_Livros" xfId="2"/>
+    <cellStyle name="Normal_MDM-ReferenceData" xfId="3"/>
+    <cellStyle name="Normal_Sheet2" xfId="4"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +678,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -374,7 +712,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,194 +887,368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="15.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="8" width="15.140625" style="3" customWidth="1"/>
+    <col min="9" max="17" width="14" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="2" t="s">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="15"/>
+      <c r="S1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="S2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="T2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="U2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="V2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="X2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Z2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="3" t="s">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="T3" s="10">
+        <v>41640</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Z3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O4" s="5" t="s">
+    <row r="4" spans="1:26" ht="15.75" thickBot="1">
+      <c r="Y4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Z4" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O5" s="5" t="s">
+    <row r="5" spans="1:26" ht="15.75" thickBot="1">
+      <c r="Y5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Z5" s="6">
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="5" t="s">
+    <row r="6" spans="1:26" ht="15.75" thickBot="1">
+      <c r="Y6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Z6" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O7" s="5" t="s">
+    <row r="7" spans="1:26" ht="15.75" thickBot="1">
+      <c r="Y7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Z7" s="6">
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O10" s="8" t="s">
-        <v>31</v>
-      </c>
+    <row r="9" spans="1:26">
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="Y10" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
@@ -751,43 +1262,43 @@
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="C1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <f>+D3+E3</f>
@@ -809,19 +1320,19 @@
         <v>0.66</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <f>+D4+E4</f>
@@ -842,20 +1353,20 @@
         <f>0.55*2</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <f>+D5+E5</f>
@@ -876,20 +1387,20 @@
         <f>0.62*2</f>
         <v>1.24</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
         <f>+D6+E6</f>
@@ -910,20 +1421,20 @@
         <f>1.3*2</f>
         <v>2.6</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <f>+D7+E7</f>
@@ -944,20 +1455,20 @@
         <f>2.9*2</f>
         <v>5.8</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
         <f>+F9+G9+H9</f>
@@ -974,12 +1485,12 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <f>+F10+G10+H10</f>
@@ -996,12 +1507,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1">
         <f>+F11+G11+H11</f>
@@ -1018,12 +1529,12 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1">
         <f>+F12+G12+H12</f>
@@ -1040,12 +1551,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
         <f>+F13+G13+H13</f>
@@ -1062,12 +1573,12 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1">
         <f>+F15+G15+H15</f>
@@ -1084,12 +1595,12 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1">
         <f>+F16+G16+H16</f>
@@ -1106,12 +1617,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1">
         <f>+F17+G17+H17</f>
@@ -1128,12 +1639,12 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1">
         <f>+F18+G18+H18</f>
@@ -1150,12 +1661,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
         <f>+F19+G19+H19</f>
@@ -1173,20 +1684,526 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>41540</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>41540</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>41540</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="13">
+        <v>41552</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>41552</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="13">
+        <v>41556</v>
+      </c>
+      <c r="I3" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>41556</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="13">
+        <v>41562</v>
+      </c>
+      <c r="I4" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>41562</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="13">
+        <v>41562</v>
+      </c>
+      <c r="I5" s="26">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="J2" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>20</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4">
+        <v>100</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="4">
+        <v>500</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" s="4">
+        <v>500</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="23">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>